--- a/WMM_All_configurations/MCBXFB_02_Outer_Iron_600_20210510/Summary_MM_MCBXFB_02_Outer_Iron_600_20210510.xlsx
+++ b/WMM_All_configurations/MCBXFB_02_Outer_Iron_600_20210510/Summary_MM_MCBXFB_02_Outer_Iron_600_20210510.xlsx
@@ -559,19 +559,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0004072803387380547</v>
+        <v>0.000407280338738097</v>
       </c>
       <c r="C4">
-        <v>0.0004072803387380547</v>
+        <v>0.000407280338738097</v>
       </c>
       <c r="D4">
-        <v>0.0004072803387380547</v>
+        <v>0.000407280338738097</v>
       </c>
       <c r="E4">
-        <v>0.0004072803387380547</v>
+        <v>0.000407280338738097</v>
       </c>
       <c r="F4">
-        <v>0.0004072803387380547</v>
+        <v>0.000407280338738097</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -579,19 +579,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-5.836717448380194E-05</v>
+        <v>-5.836717448359636E-05</v>
       </c>
       <c r="C5">
-        <v>-5.836717448380194E-05</v>
+        <v>-5.836717448359636E-05</v>
       </c>
       <c r="D5">
-        <v>-5.836717448380194E-05</v>
+        <v>-5.836717448359636E-05</v>
       </c>
       <c r="E5">
-        <v>-5.836717448380194E-05</v>
+        <v>-5.836717448359636E-05</v>
       </c>
       <c r="F5">
-        <v>-5.836717448380194E-05</v>
+        <v>-5.836717448359636E-05</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -624,19 +624,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.77048955893622E-19</v>
+        <v>4.553649124439119E-19</v>
       </c>
       <c r="C8">
-        <v>4.77048955893622E-19</v>
+        <v>4.553649124439119E-19</v>
       </c>
       <c r="D8">
-        <v>4.77048955893622E-19</v>
+        <v>4.553649124439119E-19</v>
       </c>
       <c r="E8">
-        <v>4.77048955893622E-19</v>
+        <v>4.553649124439119E-19</v>
       </c>
       <c r="F8">
-        <v>4.77048955893622E-19</v>
+        <v>4.553649124439119E-19</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -664,19 +664,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.3930271049348351</v>
+        <v>-0.3930271049348346</v>
       </c>
       <c r="C10">
-        <v>-0.3930271049348351</v>
+        <v>-0.3930271049348346</v>
       </c>
       <c r="D10">
-        <v>-0.3930271049348351</v>
+        <v>-0.3930271049348346</v>
       </c>
       <c r="E10">
-        <v>-0.3930271049348351</v>
+        <v>-0.3930271049348346</v>
       </c>
       <c r="F10">
-        <v>-0.3930271049348351</v>
+        <v>-0.3930271049348346</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -684,19 +684,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.00858137993508668</v>
+        <v>0.008581379935086668</v>
       </c>
       <c r="C11">
-        <v>0.00858137993508668</v>
+        <v>0.008581379935086668</v>
       </c>
       <c r="D11">
-        <v>0.00858137993508668</v>
+        <v>0.008581379935086668</v>
       </c>
       <c r="E11">
-        <v>0.00858137993508668</v>
+        <v>0.008581379935086668</v>
       </c>
       <c r="F11">
-        <v>0.00858137993508668</v>
+        <v>0.008581379935086668</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -704,19 +704,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.01388888041420237</v>
+        <v>0.01388888041420266</v>
       </c>
       <c r="C12">
-        <v>0.01388888041420237</v>
+        <v>0.01388888041420266</v>
       </c>
       <c r="D12">
-        <v>0.01388888041420237</v>
+        <v>0.01388888041420266</v>
       </c>
       <c r="E12">
-        <v>0.01388888041420237</v>
+        <v>0.01388888041420266</v>
       </c>
       <c r="F12">
-        <v>0.01388888041420237</v>
+        <v>0.01388888041420266</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -724,19 +724,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1782125960423138</v>
+        <v>0.1782125960423139</v>
       </c>
       <c r="C13">
-        <v>0.1782125960423138</v>
+        <v>0.1782125960423139</v>
       </c>
       <c r="D13">
-        <v>0.1782125960423138</v>
+        <v>0.1782125960423139</v>
       </c>
       <c r="E13">
-        <v>0.1782125960423138</v>
+        <v>0.1782125960423139</v>
       </c>
       <c r="F13">
-        <v>0.1782125960423138</v>
+        <v>0.1782125960423139</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -744,19 +744,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.02174355317358792</v>
+        <v>-0.02174355317358775</v>
       </c>
       <c r="C14">
-        <v>-0.02174355317358792</v>
+        <v>-0.02174355317358775</v>
       </c>
       <c r="D14">
-        <v>-0.02174355317358792</v>
+        <v>-0.02174355317358775</v>
       </c>
       <c r="E14">
-        <v>-0.02174355317358792</v>
+        <v>-0.02174355317358775</v>
       </c>
       <c r="F14">
-        <v>-0.02174355317358792</v>
+        <v>-0.02174355317358775</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -764,19 +764,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.04451658019993282</v>
+        <v>-0.04451658019993276</v>
       </c>
       <c r="C15">
-        <v>-0.04451658019993282</v>
+        <v>-0.04451658019993276</v>
       </c>
       <c r="D15">
-        <v>-0.04451658019993282</v>
+        <v>-0.04451658019993276</v>
       </c>
       <c r="E15">
-        <v>-0.04451658019993282</v>
+        <v>-0.04451658019993276</v>
       </c>
       <c r="F15">
-        <v>-0.04451658019993282</v>
+        <v>-0.04451658019993276</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -784,19 +784,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.01899843313720993</v>
+        <v>0.01899843313721004</v>
       </c>
       <c r="C16">
-        <v>0.01899843313720993</v>
+        <v>0.01899843313721004</v>
       </c>
       <c r="D16">
-        <v>0.01899843313720993</v>
+        <v>0.01899843313721004</v>
       </c>
       <c r="E16">
-        <v>0.01899843313720993</v>
+        <v>0.01899843313721004</v>
       </c>
       <c r="F16">
-        <v>0.01899843313720993</v>
+        <v>0.01899843313721004</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -804,19 +804,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.01957732203471836</v>
+        <v>-0.01957732203471832</v>
       </c>
       <c r="C17">
-        <v>-0.01957732203471836</v>
+        <v>-0.01957732203471832</v>
       </c>
       <c r="D17">
-        <v>-0.01957732203471836</v>
+        <v>-0.01957732203471832</v>
       </c>
       <c r="E17">
-        <v>-0.01957732203471836</v>
+        <v>-0.01957732203471832</v>
       </c>
       <c r="F17">
-        <v>-0.01957732203471836</v>
+        <v>-0.01957732203471832</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -824,19 +824,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.009319033753205886</v>
+        <v>0.009319033753205613</v>
       </c>
       <c r="C18">
-        <v>0.009319033753205886</v>
+        <v>0.009319033753205613</v>
       </c>
       <c r="D18">
-        <v>0.009319033753205886</v>
+        <v>0.009319033753205613</v>
       </c>
       <c r="E18">
-        <v>0.009319033753205886</v>
+        <v>0.009319033753205613</v>
       </c>
       <c r="F18">
-        <v>0.009319033753205886</v>
+        <v>0.009319033753205613</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -844,19 +844,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.08484218404405694</v>
+        <v>0.08484218404405625</v>
       </c>
       <c r="C19">
-        <v>0.08484218404405694</v>
+        <v>0.08484218404405625</v>
       </c>
       <c r="D19">
-        <v>0.08484218404405694</v>
+        <v>0.08484218404405625</v>
       </c>
       <c r="E19">
-        <v>0.08484218404405694</v>
+        <v>0.08484218404405625</v>
       </c>
       <c r="F19">
-        <v>0.08484218404405694</v>
+        <v>0.08484218404405625</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -864,19 +864,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.06986040415715054</v>
+        <v>0.06986040415715522</v>
       </c>
       <c r="C20">
-        <v>0.06986040415715054</v>
+        <v>0.06986040415715522</v>
       </c>
       <c r="D20">
-        <v>0.06986040415715054</v>
+        <v>0.06986040415715522</v>
       </c>
       <c r="E20">
-        <v>0.06986040415715054</v>
+        <v>0.06986040415715522</v>
       </c>
       <c r="F20">
-        <v>0.06986040415715054</v>
+        <v>0.06986040415715522</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -884,19 +884,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.01949028105008245</v>
+        <v>-0.01949028105008173</v>
       </c>
       <c r="C21">
-        <v>-0.01949028105008245</v>
+        <v>-0.01949028105008173</v>
       </c>
       <c r="D21">
-        <v>-0.01949028105008245</v>
+        <v>-0.01949028105008173</v>
       </c>
       <c r="E21">
-        <v>-0.01949028105008245</v>
+        <v>-0.01949028105008173</v>
       </c>
       <c r="F21">
-        <v>-0.01949028105008245</v>
+        <v>-0.01949028105008173</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -904,19 +904,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.02123646458647941</v>
+        <v>-0.02123646458647982</v>
       </c>
       <c r="C22">
-        <v>-0.02123646458647941</v>
+        <v>-0.02123646458647982</v>
       </c>
       <c r="D22">
-        <v>-0.02123646458647941</v>
+        <v>-0.02123646458647982</v>
       </c>
       <c r="E22">
-        <v>-0.02123646458647941</v>
+        <v>-0.02123646458647982</v>
       </c>
       <c r="F22">
-        <v>-0.02123646458647941</v>
+        <v>-0.02123646458647982</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -949,19 +949,19 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <v>0.319251938296966</v>
+        <v>0.3192519382969663</v>
       </c>
       <c r="C25">
-        <v>0.319251938296966</v>
+        <v>0.3192519382969663</v>
       </c>
       <c r="D25">
-        <v>0.319251938296966</v>
+        <v>0.3192519382969663</v>
       </c>
       <c r="E25">
-        <v>0.319251938296966</v>
+        <v>0.3192519382969663</v>
       </c>
       <c r="F25">
-        <v>0.319251938296966</v>
+        <v>0.3192519382969663</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -989,19 +989,19 @@
         <v>24</v>
       </c>
       <c r="B27">
-        <v>-0.09665824155620004</v>
+        <v>-0.09665824155619993</v>
       </c>
       <c r="C27">
-        <v>-0.09665824155620004</v>
+        <v>-0.09665824155619993</v>
       </c>
       <c r="D27">
-        <v>-0.09665824155620004</v>
+        <v>-0.09665824155619993</v>
       </c>
       <c r="E27">
-        <v>-0.09665824155620004</v>
+        <v>-0.09665824155619993</v>
       </c>
       <c r="F27">
-        <v>-0.09665824155620004</v>
+        <v>-0.09665824155619993</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1009,19 +1009,19 @@
         <v>25</v>
       </c>
       <c r="B28">
-        <v>-0.9436652518887075</v>
+        <v>-0.9436652518887074</v>
       </c>
       <c r="C28">
-        <v>-0.9436652518887075</v>
+        <v>-0.9436652518887074</v>
       </c>
       <c r="D28">
-        <v>-0.9436652518887075</v>
+        <v>-0.9436652518887074</v>
       </c>
       <c r="E28">
-        <v>-0.9436652518887075</v>
+        <v>-0.9436652518887074</v>
       </c>
       <c r="F28">
-        <v>-0.9436652518887075</v>
+        <v>-0.9436652518887074</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1069,19 +1069,19 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>-0.0888185678756279</v>
+        <v>-0.08881856787562779</v>
       </c>
       <c r="C31">
-        <v>-0.0888185678756279</v>
+        <v>-0.08881856787562779</v>
       </c>
       <c r="D31">
-        <v>-0.0888185678756279</v>
+        <v>-0.08881856787562779</v>
       </c>
       <c r="E31">
-        <v>-0.0888185678756279</v>
+        <v>-0.08881856787562779</v>
       </c>
       <c r="F31">
-        <v>-0.0888185678756279</v>
+        <v>-0.08881856787562779</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1089,19 +1089,19 @@
         <v>29</v>
       </c>
       <c r="B32">
-        <v>0.6037940043304881</v>
+        <v>0.603794004330488</v>
       </c>
       <c r="C32">
-        <v>0.6037940043304881</v>
+        <v>0.603794004330488</v>
       </c>
       <c r="D32">
-        <v>0.6037940043304881</v>
+        <v>0.603794004330488</v>
       </c>
       <c r="E32">
-        <v>0.6037940043304881</v>
+        <v>0.603794004330488</v>
       </c>
       <c r="F32">
-        <v>0.6037940043304881</v>
+        <v>0.603794004330488</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1109,19 +1109,19 @@
         <v>30</v>
       </c>
       <c r="B33">
-        <v>0.001427137966468634</v>
+        <v>0.00142713796646887</v>
       </c>
       <c r="C33">
-        <v>0.001427137966468634</v>
+        <v>0.00142713796646887</v>
       </c>
       <c r="D33">
-        <v>0.001427137966468634</v>
+        <v>0.00142713796646887</v>
       </c>
       <c r="E33">
-        <v>0.001427137966468634</v>
+        <v>0.00142713796646887</v>
       </c>
       <c r="F33">
-        <v>0.001427137966468634</v>
+        <v>0.00142713796646887</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1129,19 +1129,19 @@
         <v>31</v>
       </c>
       <c r="B34">
-        <v>0.06054048627648316</v>
+        <v>0.0605404862764831</v>
       </c>
       <c r="C34">
-        <v>0.06054048627648316</v>
+        <v>0.0605404862764831</v>
       </c>
       <c r="D34">
-        <v>0.06054048627648316</v>
+        <v>0.0605404862764831</v>
       </c>
       <c r="E34">
-        <v>0.06054048627648316</v>
+        <v>0.0605404862764831</v>
       </c>
       <c r="F34">
-        <v>0.06054048627648316</v>
+        <v>0.0605404862764831</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1149,19 +1149,19 @@
         <v>32</v>
       </c>
       <c r="B35">
-        <v>0.008200144275753198</v>
+        <v>0.008200144275755744</v>
       </c>
       <c r="C35">
-        <v>0.008200144275753198</v>
+        <v>0.008200144275755744</v>
       </c>
       <c r="D35">
-        <v>0.008200144275753198</v>
+        <v>0.008200144275755744</v>
       </c>
       <c r="E35">
-        <v>0.008200144275753198</v>
+        <v>0.008200144275755744</v>
       </c>
       <c r="F35">
-        <v>0.008200144275753198</v>
+        <v>0.008200144275755744</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1169,19 +1169,19 @@
         <v>33</v>
       </c>
       <c r="B36">
-        <v>-0.1748569993032766</v>
+        <v>-0.1748569993032678</v>
       </c>
       <c r="C36">
-        <v>-0.1748569993032766</v>
+        <v>-0.1748569993032678</v>
       </c>
       <c r="D36">
-        <v>-0.1748569993032766</v>
+        <v>-0.1748569993032678</v>
       </c>
       <c r="E36">
-        <v>-0.1748569993032766</v>
+        <v>-0.1748569993032678</v>
       </c>
       <c r="F36">
-        <v>-0.1748569993032766</v>
+        <v>-0.1748569993032678</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1189,19 +1189,19 @@
         <v>34</v>
       </c>
       <c r="B37">
-        <v>-0.02600280134801703</v>
+        <v>-0.0260028013480158</v>
       </c>
       <c r="C37">
-        <v>-0.02600280134801703</v>
+        <v>-0.0260028013480158</v>
       </c>
       <c r="D37">
-        <v>-0.02600280134801703</v>
+        <v>-0.0260028013480158</v>
       </c>
       <c r="E37">
-        <v>-0.02600280134801703</v>
+        <v>-0.0260028013480158</v>
       </c>
       <c r="F37">
-        <v>-0.02600280134801703</v>
+        <v>-0.0260028013480158</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1209,19 +1209,19 @@
         <v>35</v>
       </c>
       <c r="B38">
-        <v>-0.001146065825627318</v>
+        <v>-0.001146065825629762</v>
       </c>
       <c r="C38">
-        <v>-0.001146065825627318</v>
+        <v>-0.001146065825629762</v>
       </c>
       <c r="D38">
-        <v>-0.001146065825627318</v>
+        <v>-0.001146065825629762</v>
       </c>
       <c r="E38">
-        <v>-0.001146065825627318</v>
+        <v>-0.001146065825629762</v>
       </c>
       <c r="F38">
-        <v>-0.001146065825627318</v>
+        <v>-0.001146065825629762</v>
       </c>
     </row>
     <row r="39" spans="1:6">
